--- a/data/case1/13/Q2_14.xlsx
+++ b/data/case1/13/Q2_14.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.31608880295301844</v>
+        <v>0.32703571387048669</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.037306895006402385</v>
+        <v>-0.032854260718867323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999854778423</v>
+        <v>-0.0039999999677728937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999741122707</v>
+        <v>-0.0079999999426103585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.033036468797648766</v>
+        <v>-0.0029999999637277952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999815265568</v>
+        <v>-0.001999999955168974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999617090829</v>
+        <v>-0.0099999999131421546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999608790802</v>
+        <v>-0.0099999999113058458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999794246826</v>
+        <v>-0.0019999999501836285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999978620437</v>
+        <v>-0.0019999999482536168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999761152196</v>
+        <v>-0.0029999999429959345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999747595822</v>
+        <v>-0.0034999999400495696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999741804899</v>
+        <v>-0.0034999999385822989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999631290564</v>
+        <v>-0.007999999915139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998018418523</v>
+        <v>0.010250906017729378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.010148943253866172</v>
+        <v>-0.0019999999454625161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999774960031</v>
+        <v>-0.0019999999446200789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999725219837</v>
+        <v>-0.0039999999341215897</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999888062909</v>
+        <v>-0.0039999999764126493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999836624056</v>
+        <v>-0.018911512655085616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.07441665005646847</v>
+        <v>-0.060300293680654704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999822963872</v>
+        <v>-0.0039999999622608584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999818561847</v>
+        <v>-0.004999999961114554</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042484923360118998</v>
+        <v>-0.019999999880558228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999942351465</v>
+        <v>-0.019999999879015462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999795412009</v>
+        <v>-0.0024999999511177151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999784185434</v>
+        <v>-0.002499999948787579</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999749407138</v>
+        <v>-0.0019999999403559343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999595458107</v>
+        <v>-0.0069999999069088048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999828991513</v>
+        <v>-0.059999999630838907</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999566672244</v>
+        <v>-0.0069999999006817859</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999491995339</v>
+        <v>-0.0099999998849042981</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999637050365</v>
+        <v>-0.0039999999155817534</v>
       </c>
     </row>
   </sheetData>
